--- a/machine_combinations_pf_filtered_2.xlsx
+++ b/machine_combinations_pf_filtered_2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1288"/>
+  <dimension ref="A1:F1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31357,6 +31357,28 @@
         </is>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr"/>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="n">
+        <v>11850</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
